--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+10%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_+10%.xlsx
@@ -69572,6 +69572,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.66016666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>446.4261111111111</v>
       </c>
@@ -69627,6 +69630,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.58466666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>438.8644444444445</v>
       </c>
@@ -69682,6 +69688,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>12.16666666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>413.5461111111111</v>
       </c>
@@ -69737,6 +69746,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>14.0885</v>
+      </c>
       <c r="C5" t="n">
         <v>445.385</v>
       </c>
@@ -69792,6 +69804,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.68483333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>421.6588888888889</v>
       </c>
@@ -69847,6 +69862,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.86883333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>432.7744444444445</v>
       </c>
@@ -69902,6 +69920,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.30983333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>425.0661111111111</v>
       </c>
@@ -69957,6 +69978,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.57283333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>443.6872222222223</v>
       </c>
@@ -70012,6 +70036,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.4705</v>
+      </c>
       <c r="C10" t="n">
         <v>444.6955555555555</v>
       </c>
@@ -70067,6 +70094,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>13.355</v>
+      </c>
       <c r="C11" t="n">
         <v>444.36</v>
       </c>
@@ -70122,6 +70152,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.90133333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>438.306111111111</v>
       </c>
@@ -70177,6 +70210,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.04133333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>415.8122222222222</v>
       </c>
@@ -70232,6 +70268,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.93083333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>452.5738888888889</v>
       </c>
@@ -70287,6 +70326,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>14.23783333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>443.8983333333334</v>
       </c>
@@ -70342,6 +70384,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.10316666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>454.7455555555555</v>
       </c>
@@ -70397,6 +70442,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.18616666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>444.1461111111111</v>
       </c>
@@ -70452,6 +70500,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.72166666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>441.0833333333334</v>
       </c>
@@ -70507,6 +70558,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.9245</v>
+      </c>
       <c r="C19" t="n">
         <v>437.7916666666667</v>
       </c>
@@ -70562,6 +70616,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.82983333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>451.4350000000001</v>
       </c>
@@ -70617,6 +70674,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.608</v>
+      </c>
       <c r="C21" t="n">
         <v>433.1333333333333</v>
       </c>
@@ -70672,6 +70732,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.68566666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>456.8266666666667</v>
       </c>
@@ -70727,6 +70790,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>14.16033333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>445.4927777777777</v>
       </c>
@@ -70782,6 +70848,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.15933333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>443.0933333333332</v>
       </c>
@@ -70837,6 +70906,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.6885</v>
+      </c>
       <c r="C25" t="n">
         <v>444.8088888888888</v>
       </c>
@@ -70892,6 +70964,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.198</v>
+      </c>
       <c r="C26" t="n">
         <v>442.2133333333333</v>
       </c>
@@ -70947,6 +71022,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>11.85466666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>405.3855555555556</v>
       </c>
@@ -71002,6 +71080,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>14.33516666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>431.8572222222222</v>
       </c>
@@ -71057,6 +71138,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.551</v>
+      </c>
       <c r="C29" t="n">
         <v>447.3027777777778</v>
       </c>
@@ -71112,6 +71196,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.10016666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>430.2311111111111</v>
       </c>
@@ -71166,6 +71253,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.01966666666667</v>
       </c>
       <c r="C31" t="n">
         <v>418.6055555555556</v>
